--- a/course-bulk-template.xlsx
+++ b/course-bulk-template.xlsx
@@ -1,41 +1,335 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29315"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Web Apps\Javascript\schomas\schomas-backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49088B7B-1E63-4AF5-AC01-B147F16A5BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>teacherName</t>
+  </si>
+  <si>
+    <t>MATH101</t>
+  </si>
+  <si>
+    <t>Mathematics Form 1</t>
+  </si>
+  <si>
+    <t>Basic mathematics for form 1 students</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Form one</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>English Form 1</t>
+  </si>
+  <si>
+    <t>English language and literature</t>
+  </si>
+  <si>
+    <t>SCI101</t>
+  </si>
+  <si>
+    <t>Science Form 1</t>
+  </si>
+  <si>
+    <t>General science concepts</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>History Form 1</t>
+  </si>
+  <si>
+    <t>World and Kenyan history</t>
+  </si>
+  <si>
+    <t>GEOG101</t>
+  </si>
+  <si>
+    <t>Geography Form 1</t>
+  </si>
+  <si>
+    <t>Basic geography concepts</t>
+  </si>
+  <si>
+    <t>KISW101</t>
+  </si>
+  <si>
+    <t>Kiswahili Form 1</t>
+  </si>
+  <si>
+    <t>Kiswahili language and literature</t>
+  </si>
+  <si>
+    <t>CRE101</t>
+  </si>
+  <si>
+    <t>CRE Form 1</t>
+  </si>
+  <si>
+    <t>Christian Religious Education</t>
+  </si>
+  <si>
+    <t>ART101</t>
+  </si>
+  <si>
+    <t>Art Form 1</t>
+  </si>
+  <si>
+    <t>Visual arts and crafts</t>
+  </si>
+  <si>
+    <t>MUSIC101</t>
+  </si>
+  <si>
+    <t>Music Form 1</t>
+  </si>
+  <si>
+    <t>Music theory and practice</t>
+  </si>
+  <si>
+    <t>PE101</t>
+  </si>
+  <si>
+    <t>Physical Education Form 1</t>
+  </si>
+  <si>
+    <t>Physical education and sports</t>
+  </si>
+  <si>
+    <t>MATH201</t>
+  </si>
+  <si>
+    <t>Mathematics Form 2</t>
+  </si>
+  <si>
+    <t>Intermediate mathematics</t>
+  </si>
+  <si>
+    <t>Form two</t>
+  </si>
+  <si>
+    <t>ENG201</t>
+  </si>
+  <si>
+    <t>English Form 2</t>
+  </si>
+  <si>
+    <t>Advanced English concepts</t>
+  </si>
+  <si>
+    <t>PHYS201</t>
+  </si>
+  <si>
+    <t>Physics Form 2</t>
+  </si>
+  <si>
+    <t>Basic physics principles</t>
+  </si>
+  <si>
+    <t>CHEM201</t>
+  </si>
+  <si>
+    <t>Chemistry Form 2</t>
+  </si>
+  <si>
+    <t>Chemical reactions and compounds</t>
+  </si>
+  <si>
+    <t>BIO201</t>
+  </si>
+  <si>
+    <t>Biology Form 2</t>
+  </si>
+  <si>
+    <t>Basic biology concepts</t>
+  </si>
+  <si>
+    <t>HIST201</t>
+  </si>
+  <si>
+    <t>History Form 2</t>
+  </si>
+  <si>
+    <t>Advanced history studies</t>
+  </si>
+  <si>
+    <t>GEOG201</t>
+  </si>
+  <si>
+    <t>Geography Form 2</t>
+  </si>
+  <si>
+    <t>Intermediate geography</t>
+  </si>
+  <si>
+    <t>KISW201</t>
+  </si>
+  <si>
+    <t>Kiswahili Form 2</t>
+  </si>
+  <si>
+    <t>Advanced Kiswahili studies</t>
+  </si>
+  <si>
+    <t>CRE201</t>
+  </si>
+  <si>
+    <t>CRE Form 2</t>
+  </si>
+  <si>
+    <t>Advanced Christian Religious Education</t>
+  </si>
+  <si>
+    <t>BUS201</t>
+  </si>
+  <si>
+    <t>Business Studies Form 2</t>
+  </si>
+  <si>
+    <t>Introduction to business concepts</t>
+  </si>
+  <si>
+    <t>MATH301</t>
+  </si>
+  <si>
+    <t>Mathematics Form 3</t>
+  </si>
+  <si>
+    <t>Advanced mathematics</t>
+  </si>
+  <si>
+    <t>Form Three</t>
+  </si>
+  <si>
+    <t>ENG301</t>
+  </si>
+  <si>
+    <t>English Form 3</t>
+  </si>
+  <si>
+    <t>Advanced English literature and language</t>
+  </si>
+  <si>
+    <t>PHYS301</t>
+  </si>
+  <si>
+    <t>Physics Form 3</t>
+  </si>
+  <si>
+    <t>Advanced physics concepts</t>
+  </si>
+  <si>
+    <t>CHEM301</t>
+  </si>
+  <si>
+    <t>Chemistry Form 3</t>
+  </si>
+  <si>
+    <t>Advanced chemistry studies</t>
+  </si>
+  <si>
+    <t>BIO301</t>
+  </si>
+  <si>
+    <t>Biology Form 3</t>
+  </si>
+  <si>
+    <t>Advanced biology concepts</t>
+  </si>
+  <si>
+    <t>HIST301</t>
+  </si>
+  <si>
+    <t>History Form 3</t>
+  </si>
+  <si>
+    <t>Advanced history and government</t>
+  </si>
+  <si>
+    <t>GEOG301</t>
+  </si>
+  <si>
+    <t>Geography Form 3</t>
+  </si>
+  <si>
+    <t>Advanced geography studies</t>
+  </si>
+  <si>
+    <t>KISW301</t>
+  </si>
+  <si>
+    <t>Kiswahili Form 3</t>
+  </si>
+  <si>
+    <t>Advanced Kiswahili literature</t>
+  </si>
+  <si>
+    <t>CRE301</t>
+  </si>
+  <si>
+    <t>CRE Form 3</t>
+  </si>
+  <si>
+    <t>AGRI301</t>
+  </si>
+  <si>
+    <t>Agriculture Form 3</t>
+  </si>
+  <si>
+    <t>Agricultural science and practices</t>
+  </si>
+  <si>
+    <t>Matthews Gondwe</t>
+  </si>
+  <si>
+    <t>Memory Gondwe</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +359,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,268 +698,647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>code</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>className</v>
-      </c>
-      <c r="F1" t="str">
-        <v>teacherName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>schedule</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>MATH101</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mathematics Form 1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Basic mathematics for form 1 students</v>
-      </c>
-      <c r="D2" t="str">
-        <v>active</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Form one</v>
-      </c>
-      <c r="F2" t="str">
-        <v>John Doe</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Monday 8:00-9:00</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ENG101</v>
-      </c>
-      <c r="B3" t="str">
-        <v>English Form 1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>English language and literature</v>
-      </c>
-      <c r="D3" t="str">
-        <v>active</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Form one</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Jane Smith</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Tuesday 9:00-10:00</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>SCI101</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Science Form 1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>General science concepts</v>
-      </c>
-      <c r="D4" t="str">
-        <v>active</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Form one</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Dr. Johnson</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Wednesday 10:00-11:00</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>HIST101</v>
-      </c>
-      <c r="B5" t="str">
-        <v>History Form 1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>World and Kenyan history</v>
-      </c>
-      <c r="D5" t="str">
-        <v>upcoming</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Form one</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Prof. Wilson</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Thursday 11:00-12:00</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>MATH201</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mathematics Form 2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Intermediate mathematics</v>
-      </c>
-      <c r="D6" t="str">
-        <v>active</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Form two</v>
-      </c>
-      <c r="F6" t="str">
-        <v>John Doe</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Monday 10:00-11:00</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>ENG201</v>
-      </c>
-      <c r="B7" t="str">
-        <v>English Form 2</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Advanced English concepts</v>
-      </c>
-      <c r="D7" t="str">
-        <v>active</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Form two</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Jane Smith</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Tuesday 11:00-12:00</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>PHYS201</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Physics Form 2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Basic physics principles</v>
-      </c>
-      <c r="D8" t="str">
-        <v>active</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Form two</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Dr. Brown</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Friday 8:00-9:00</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>CHEM201</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Chemistry Form 2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Chemical reactions and compounds</v>
-      </c>
-      <c r="D9" t="str">
-        <v>active</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Form two</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Dr. Davis</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Friday 9:00-10:00</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>BIO301</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Biology Form 3</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Advanced biology concepts</v>
-      </c>
-      <c r="D10" t="str">
-        <v>upcoming</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Form Three</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Dr. Miller</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Monday 12:00-13:00</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>GEOG301</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Geography Form 3</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Physical and human geography</v>
-      </c>
-      <c r="D11" t="str">
-        <v>active</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Form Three</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Ms. Garcia</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Thursday 13:00-14:00</v>
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError sqref="A1:F1 A4:E31 A2:E2 A3:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>